--- a/2022茨城大ゲーミング/全資料/E7_名簿（出品者用）.xlsx
+++ b/2022茨城大ゲーミング/全資料/E7_名簿（出品者用）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lavieで同期\日韓ゲーミング\git日韓ゲーミング\2022茨城大ゲーミング\全資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F40AFB7-E5CE-46EC-B10F-BBB6B150B2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92AA200-D0C3-4780-8868-DB9EBF356105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>氏名</t>
     <rPh sb="0" eb="2">
@@ -150,6 +150,72 @@
   </si>
   <si>
     <t>C301・302</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2組Aグループ</t>
+    <rPh sb="1" eb="2">
+      <t>クミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3組Bグループ</t>
+    <rPh sb="1" eb="2">
+      <t>クミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1組Bグループ</t>
+    <rPh sb="1" eb="2">
+      <t>クミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>う</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>え</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>か</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←あさんはこのグループにオブザーバー参加してください</t>
+    <rPh sb="18" eb="20">
+      <t>サンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←いさんはこのグループにオブザーバー参加してください</t>
+    <rPh sb="18" eb="20">
+      <t>サンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←うさんはこのグループにオブザーバー参加してください</t>
+    <rPh sb="18" eb="20">
+      <t>サンカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -538,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I5"/>
+  <dimension ref="B1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -664,6 +730,70 @@
         <v>17</v>
       </c>
     </row>
+    <row r="7" spans="2:9">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:I1"/>

--- a/2022茨城大ゲーミング/全資料/E7_名簿（出品者用）.xlsx
+++ b/2022茨城大ゲーミング/全資料/E7_名簿（出品者用）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lavieで同期\日韓ゲーミング\git日韓ゲーミング\2022茨城大ゲーミング\全資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92AA200-D0C3-4780-8868-DB9EBF356105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F53B21-C379-4FF9-AAFE-A2F2341B5BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>氏名</t>
     <rPh sb="0" eb="2">
@@ -55,18 +55,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>あ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>い</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>う</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>オブザーバー参加する受け手グループ</t>
     <rPh sb="6" eb="8">
       <t>サンカ</t>
@@ -174,49 +162,61 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>あ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>い</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>う</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>え</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>お</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>か</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>←あさんはこのグループにオブザーバー参加してください</t>
-    <rPh sb="18" eb="20">
+    <t>小川凜</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←小川凜さんはこのグループにオブザーバー参加してください</t>
+    <rPh sb="20" eb="22">
       <t>サンカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>←いさんはこのグループにオブザーバー参加してください</t>
-    <rPh sb="18" eb="20">
+    <t>河野　莉緒</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←河野　莉緒さんはこのグループにオブザーバー参加してください</t>
+    <rPh sb="22" eb="24">
       <t>サンカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>←うさんはこのグループにオブザーバー参加してください</t>
-    <rPh sb="18" eb="20">
+    <t>中里乃菜</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←中里乃菜さんはこのグループにオブザーバー参加してください</t>
+    <rPh sb="21" eb="23">
       <t>サンカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>坂佐井朋佳</t>
+  </si>
+  <si>
+    <t>久保田圭哉</t>
+  </si>
+  <si>
+    <t>鈴木柚</t>
+  </si>
+  <si>
+    <t>阿部春花</t>
+  </si>
+  <si>
+    <t>林田優</t>
+  </si>
+  <si>
+    <t>雲井美羽</t>
+  </si>
+  <si>
+    <t>三浦葉水妃</t>
+  </si>
+  <si>
+    <t>鈴木舞</t>
   </si>
 </sst>
 </file>
@@ -311,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -323,6 +323,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -606,12 +609,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -620,7 +624,7 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="F1" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -637,16 +641,16 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2">
         <v>44585</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I2" s="2">
         <v>44599</v>
@@ -654,7 +658,7 @@
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -663,24 +667,24 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -689,24 +693,24 @@
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
@@ -715,83 +719,83 @@
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" t="s">
-        <v>21</v>
+      <c r="B8" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" t="s">
-        <v>22</v>
+      <c r="B9" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" t="s">
-        <v>23</v>
+      <c r="B10" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="6" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-    </row>
     <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>25</v>
+      <c r="B18" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" t="s">
-        <v>26</v>
+      <c r="B19" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
